--- a/Log Book/Web Tech Log Book.xlsx
+++ b/Log Book/Web Tech Log Book.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenapierac-my.sharepoint.com/personal/40494595_live_napier_ac_uk/Documents/Year 2/Triemester 2/Web Tech/Labs/set08101/set08101/Log Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8089A1F9-684C-40F0-92A0-66DD1385FEDB}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9AF50FA-E65D-45CA-9595-AEED0146DB82}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="945" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
   </bookViews>
   <sheets>
     <sheet name="Command Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Git Commands" sheetId="2" r:id="rId2"/>
+    <sheet name="Basic Setups" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
   <si>
     <t>Mode</t>
   </si>
@@ -78,12 +79,551 @@
   <si>
     <t>Git Console</t>
   </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;</t>
+  </si>
+  <si>
+    <t>Represents root of an HTML document 
+THE CONTAINER FOR ALL OTHER ELEMENTS WITHINN THE DOC</t>
+  </si>
+  <si>
+    <t>display: block;</t>
+  </si>
+  <si>
+    <t>Basic HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE&gt; </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines the document type</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+  </si>
+  <si>
+    <t>Sets title for doc (Shown in new tab bit)</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t>For?</t>
+  </si>
+  <si>
+    <t>Contains metadata and other information / setup for the head of the doc
+Between &lt;html&gt; and &lt;body&gt;</t>
+  </si>
+  <si>
+    <t>Defines the document's body (Rest of main elemnts)</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt; to &lt;h6&gt;</t>
+  </si>
+  <si>
+    <t>Defines headings and their sizes / prominance</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>Defines a paragraph</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Inserts a line break</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>&lt;!--(CONTENT)--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;hr&gt;</t>
+  </si>
+  <si>
+    <t>Defines a thematic change in the content</t>
+  </si>
+  <si>
+    <t>Forms and Input</t>
+  </si>
+  <si>
+    <t>&lt;form&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input&gt;</t>
+  </si>
+  <si>
+    <t>&lt;textarea&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;select&gt;</t>
+  </si>
+  <si>
+    <t>&lt;optgroup&gt;</t>
+  </si>
+  <si>
+    <t>&lt;option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fieldset&gt;</t>
+  </si>
+  <si>
+    <t>&lt;legend&gt;</t>
+  </si>
+  <si>
+    <t>&lt;datalist&gt;</t>
+  </si>
+  <si>
+    <t>&lt;output&gt;</t>
+  </si>
+  <si>
+    <t>Defines where an HTML form is for user input</t>
+  </si>
+  <si>
+    <t>Defines an input area</t>
+  </si>
+  <si>
+    <t>Defines a multi line input area (text box)</t>
+  </si>
+  <si>
+    <t>Defines a clickable button</t>
+  </si>
+  <si>
+    <t>Defines a drop down list</t>
+  </si>
+  <si>
+    <t>defines a group of related options in a drop down list</t>
+  </si>
+  <si>
+    <t>Defines an option in a drop-down list (FOR &lt;SELECT&gt;)</t>
+  </si>
+  <si>
+    <t>Defines a label (FOR &lt;INPUT&gt;)</t>
+  </si>
+  <si>
+    <t>Groups related elements in a form</t>
+  </si>
+  <si>
+    <t>Defines a caption (FOR &lt;FIELDSET&gt; )</t>
+  </si>
+  <si>
+    <t>Specifies a list of pre-defined options for input controls</t>
+  </si>
+  <si>
+    <t>Defines the result of a calculation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How To - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basic Page Header</t>
+    </r>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Encompass entirety of header in &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="ID ON CSS"&gt;</t>
+  </si>
+  <si>
+    <t>overflow: hidden;</t>
+  </si>
+  <si>
+    <t>background-color: (ID);</t>
+  </si>
+  <si>
+    <t>Specifies what should happen if content overflows an element's box.</t>
+  </si>
+  <si>
+    <t>Sets BG Colour</t>
+  </si>
+  <si>
+    <t>enerate space around an element's content, inside of any defined borders.</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;</t>
+  </si>
+  <si>
+    <t>Defines Hyperlink</t>
+  </si>
+  <si>
+    <t>&lt;a href="LINK"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src=SOURCE id=ID&gt;</t>
+  </si>
+  <si>
+    <t>Defines Image for link to appear as (Clickable image)</t>
+  </si>
+  <si>
+    <t>max-width: 30px;</t>
+  </si>
+  <si>
+    <t>max-height: 30px;</t>
+  </si>
+  <si>
+    <t>float: left;</t>
+  </si>
+  <si>
+    <t>padding: 20px 10px;</t>
+  </si>
+  <si>
+    <t>Specifies Width of image</t>
+  </si>
+  <si>
+    <t>Specifies height of image</t>
+  </si>
+  <si>
+    <t>Places on left</t>
+  </si>
+  <si>
+    <t>specifies the display behavior</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;NAME&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>Sets name in tab bit</t>
+  </si>
+  <si>
+    <t>Sets to left side</t>
+  </si>
+  <si>
+    <t>&lt;a href="LINK"&gt;TEXT&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>color: ID;</t>
+  </si>
+  <si>
+    <t>text-align: center;</t>
+  </si>
+  <si>
+    <t>padding: 12px;</t>
+  </si>
+  <si>
+    <t>text-decoration: none;</t>
+  </si>
+  <si>
+    <t>font-size: 25px;</t>
+  </si>
+  <si>
+    <t>line-height: 25px;</t>
+  </si>
+  <si>
+    <t>border-radius: 20px;</t>
+  </si>
+  <si>
+    <t>font-family: FONT;</t>
+  </si>
+  <si>
+    <t>Sets Hyperlink as clickable button (as many as u want) CSS under .header a</t>
+  </si>
+  <si>
+    <t>background-color: ID;</t>
+  </si>
+  <si>
+    <t>Sets colour of text</t>
+  </si>
+  <si>
+    <t>Text to centre of block</t>
+  </si>
+  <si>
+    <t>padding of block</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.header a  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         Puts on left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.header a:hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hh</t>
+    </r>
+  </si>
+  <si>
+    <t>Classt="active"</t>
+  </si>
+  <si>
+    <t>Uses specific css setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;head&gt;
+        &lt;div class="header"&gt; &lt;a href="Home.html"&gt;&lt;img src=logo.png id=img1&gt;&lt;/a&gt;
+        &lt;link rel="stylesheet" href="NapierSite.css"&gt;
+        &lt;title&gt;Challenge 2.6 - 1&lt;/title&gt;
+            &lt;div class="header-right"&gt;
+                &lt;a class="active" href="Home.html"&gt;Home&lt;/a&gt;
+                &lt;a href="Modules.html"&gt;Modules&lt;/a&gt;
+                &lt;a href="About.html"&gt;About&lt;/a&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>.header {
+  overflow: hidden;
+  background-color: #5CDB95;
+  padding: 20px 10px;
+}
+.header a {
+  float: left;
+  color: black;
+  text-align: center;
+  padding: 12px;
+  text-decoration: none;
+  font-size: 25px;
+  line-height: 25px;
+  border-radius: 20px;
+  font-family: Tahoma;
+}
+.header a:hover {
+  background-color: #05386B;
+  color: #EDF5E1;
+}
+.header a.active {
+  background-color: #05386B;
+  color: #EDF5E1;
+}
+.header-right {
+  float: left;
+}
+.header a.logo {
+  font-size: 25px;
+  font-weight: bold;
+    background: url('logo.png');
+}</t>
+  </si>
+  <si>
+    <t>Example Code</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>&lt;img&gt;</t>
+  </si>
+  <si>
+    <t>&lt;map&gt;</t>
+  </si>
+  <si>
+    <t>Defines a client-side image map (?????)</t>
+  </si>
+  <si>
+    <t>Defines an Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines an area inside an image map</t>
+  </si>
+  <si>
+    <t>&lt;area&gt;</t>
+  </si>
+  <si>
+    <t>&lt;figcaption&gt;</t>
+  </si>
+  <si>
+    <t>Defines a caption for a &lt;figure&gt; element</t>
+  </si>
+  <si>
+    <t>&lt;figure&gt;</t>
+  </si>
+  <si>
+    <t>Specifies self-contained content</t>
+  </si>
+  <si>
+    <t>&lt;picture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines a container for multiple image resources</t>
+  </si>
+  <si>
+    <t>&lt;svg&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines a container for SVG graphics</t>
+  </si>
+  <si>
+    <t>Audio and Video</t>
+  </si>
+  <si>
+    <t>&lt;audio&gt;</t>
+  </si>
+  <si>
+    <t>&lt;source&gt;</t>
+  </si>
+  <si>
+    <t>&lt;track&gt;</t>
+  </si>
+  <si>
+    <t>&lt;video&gt;</t>
+  </si>
+  <si>
+    <t>Defines a video or movie</t>
+  </si>
+  <si>
+    <t>Defines text tracks for media elements (&lt;video&gt; and &lt;audio&gt;)</t>
+  </si>
+  <si>
+    <t>Defines multiple media resources for media elements (&lt;video&gt;, &lt;audio&gt; and &lt;picture&gt;)</t>
+  </si>
+  <si>
+    <t>Defines sound content</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>&lt;link&gt;</t>
+  </si>
+  <si>
+    <t>Defines a hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines the relationship between a document and an external resource 
+(most used to link to style sheets)</t>
+  </si>
+  <si>
+    <t>Defines navigation links</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>Defines a list item</t>
+  </si>
+  <si>
+    <t>Defines an ordered list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines an unordered list</t>
+  </si>
+  <si>
+    <t>&lt;dl&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Defines a description list</t>
+  </si>
+  <si>
+    <t>&lt;dt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dd&gt;</t>
+  </si>
+  <si>
+    <t>Defines a description of a term/name in a description list</t>
+  </si>
+  <si>
+    <t>Defines a term/name in a description list</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/ref_byfunc.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.w3schools.com/cssref/ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +652,44 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +720,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -168,23 +786,421 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,13 +1513,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD23A68-9E56-40A2-8D46-849CA9F31992}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+    </row>
+    <row r="64" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C46:E46"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{B60D9287-0303-4906-A394-9B3B5306D0B6}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{5FF12550-8488-4D82-83AE-66C26BDA53D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -511,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAADFCEF-F55B-4A0B-9EEE-5511E06136C6}">
   <dimension ref="C3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -522,64 +2207,64 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -589,4 +2274,373 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6F633-A2D4-46C6-9C87-6C547FE45D5F}">
+  <dimension ref="C2:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="22"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="31"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="22"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="22"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="22"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="22"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="22"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="22"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="22"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="22"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="23"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C31" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="390.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C6:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Log Book/Web Tech Log Book.xlsx
+++ b/Log Book/Web Tech Log Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenapierac-my.sharepoint.com/personal/40494595_live_napier_ac_uk/Documents/Year 2/Triemester 2/Web Tech/Labs/set08101/set08101/Log Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9AF50FA-E65D-45CA-9595-AEED0146DB82}"/>
+  <xr:revisionPtr revIDLastSave="587" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9008B8-4016-4F8D-B38C-6A52744CE45D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
+    <workbookView xWindow="705" yWindow="1185" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
   </bookViews>
   <sheets>
     <sheet name="Command Overview" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>git add .</t>
-  </si>
-  <si>
-    <t>git commit -m "Lab 2 "</t>
   </si>
   <si>
     <t>cd set08101</t>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.w3schools.com/cssref/ </t>
+  </si>
+  <si>
+    <t>git commit -m "UPDATE LOG BOOK "</t>
   </si>
 </sst>
 </file>
@@ -1075,9 +1075,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1099,92 +1096,17 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1197,6 +1119,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1528,650 +1528,650 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="E4" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
+    </row>
+    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E7" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="54" t="s">
+    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="54" t="s">
+    </row>
+    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="54" t="s">
+    </row>
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="54" t="s">
+    </row>
+    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
+    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="55" t="s">
+      <c r="E13" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E20" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E21" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E22" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E23" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
+    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E24" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
+    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E25" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="12" t="s">
+    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E26" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="12" t="s">
+    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E27" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12" t="s">
+    <row r="28" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E28" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12" t="s">
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E29" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12" t="s">
+    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E30" s="30" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E37" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="12" t="s">
+    <row r="39" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="54" t="s">
+    </row>
+    <row r="40" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="E40" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="54" t="s">
+    </row>
+    <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="54" t="s">
+    </row>
+    <row r="42" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="55" t="s">
+      <c r="E42" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="E50" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="55" t="s">
+      <c r="E51" s="30" t="s">
         <v>130</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-    </row>
-    <row r="56" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="54" t="s">
+      <c r="E58" s="32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="58" t="s">
+    <row r="59" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="30" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="35"/>
+    </row>
+    <row r="64" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-    </row>
-    <row r="64" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E66" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" s="54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="E68" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="54" t="s">
+    </row>
+    <row r="69" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="E69" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E69" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="55" t="s">
+      <c r="E70" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="73" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="C74" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
     </row>
     <row r="75" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>18</v>
+      <c r="C75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="8"/>
+      <c r="C76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="8"/>
+      <c r="C77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="8"/>
+      <c r="C78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="8"/>
+      <c r="C79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="8"/>
+      <c r="C80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="8"/>
+      <c r="C81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAADFCEF-F55B-4A0B-9EEE-5511E06136C6}">
   <dimension ref="C3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,10 +2207,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -2222,50 +2222,50 @@
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2294,336 +2294,336 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F6" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="43"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="43"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="43"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="43"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="44"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="22"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="52" t="s">
+      <c r="F16" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
+      <c r="E18" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="31"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="32" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
+      <c r="F19" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="43"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="43"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="43"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="43"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="43"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="43"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="43"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="43"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="43"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="43"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="44"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C31" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="22"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="22"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="22"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="22"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="52"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="22"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="22"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="22"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="23"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="53" t="s">
+    </row>
+    <row r="33" spans="3:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="50" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C31" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-    </row>
-    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="43" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="41" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="34" spans="3:6" ht="390.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Log Book/Web Tech Log Book.xlsx
+++ b/Log Book/Web Tech Log Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenapierac-my.sharepoint.com/personal/40494595_live_napier_ac_uk/Documents/Year 2/Triemester 2/Web Tech/Labs/set08101/set08101/Log Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9008B8-4016-4F8D-B38C-6A52744CE45D}"/>
+  <xr:revisionPtr revIDLastSave="589" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA4106C0-A70E-462E-A2AB-261EA6A274A8}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1185" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
   </bookViews>
   <sheets>
     <sheet name="Command Overview" sheetId="1" r:id="rId1"/>
@@ -1132,30 +1132,63 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,39 +1196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1214,6 +1214,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476572</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB65F33E-B89B-4B6A-BB7C-7C9539F2911D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="200025"/>
+          <a:ext cx="2305372" cy="2629267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925DF24A-0CB7-4F00-A7C0-33CB33FFA56E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14516100" y="600075"/>
+          <a:ext cx="2934109" cy="1991003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1516,7 +1609,7 @@
   <dimension ref="C1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,6 +2282,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2196,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAADFCEF-F55B-4A0B-9EEE-5511E06136C6}">
   <dimension ref="C3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,12 +2388,12 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -2319,7 +2413,7 @@
       <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="48" t="s">
         <v>64</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -2330,10 +2424,10 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="18" t="s">
         <v>68</v>
       </c>
@@ -2342,8 +2436,8 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="43"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="18" t="s">
         <v>69</v>
       </c>
@@ -2352,8 +2446,8 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="43"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="20" t="s">
         <v>81</v>
       </c>
@@ -2362,10 +2456,10 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -2376,8 +2470,8 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="22" t="s">
         <v>76</v>
       </c>
@@ -2386,10 +2480,10 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="23" t="s">
         <v>78</v>
       </c>
@@ -2398,8 +2492,8 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="43"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="23" t="s">
         <v>79</v>
       </c>
@@ -2408,8 +2502,8 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="43"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2418,8 +2512,8 @@
       </c>
     </row>
     <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="44"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="25" t="s">
         <v>14</v>
       </c>
@@ -2445,7 +2539,7 @@
       <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="48" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -2459,7 +2553,7 @@
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="18" t="s">
         <v>80</v>
       </c>
@@ -2471,7 +2565,7 @@
       <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="48" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -2482,10 +2576,10 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="18" t="s">
         <v>80</v>
       </c>
@@ -2494,8 +2588,8 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="43"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="18" t="s">
         <v>90</v>
       </c>
@@ -2504,8 +2598,8 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="43"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="18" t="s">
         <v>91</v>
       </c>
@@ -2514,8 +2608,8 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="43"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="18" t="s">
         <v>92</v>
       </c>
@@ -2524,48 +2618,48 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="43"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="43"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="43"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="43"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="18" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="26"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="43"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="18" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="40"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="18" t="s">
         <v>99</v>
       </c>
@@ -2574,16 +2668,16 @@
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="43"/>
-      <c r="D29" s="40"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="18" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="44"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="22" t="s">
         <v>105</v>
       </c>
@@ -2592,12 +2686,12 @@
       </c>
     </row>
     <row r="31" spans="3:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
@@ -2610,23 +2704,29 @@
       </c>
     </row>
     <row r="33" spans="3:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="48" t="s">
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="390.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="49"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="C33:E34"/>
@@ -2634,12 +2734,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D30"/>
     <mergeCell ref="C19:C30"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Log Book/Web Tech Log Book.xlsx
+++ b/Log Book/Web Tech Log Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenapierac-my.sharepoint.com/personal/40494595_live_napier_ac_uk/Documents/Year 2/Triemester 2/Web Tech/Labs/set08101/set08101/Log Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="589" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA4106C0-A70E-462E-A2AB-261EA6A274A8}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{C0C3D6A0-1FF8-49FD-A713-00FC3A47CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A43EA933-6E1A-4A25-8F45-C7672B48335C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{49FC2CC8-0BD6-4023-BFB6-BEAC8790EC86}"/>
   </bookViews>
@@ -616,7 +616,7 @@
     <t xml:space="preserve">https://www.w3schools.com/cssref/ </t>
   </si>
   <si>
-    <t>git commit -m "UPDATE LOG BOOK "</t>
+    <t>git commit -m "Add CW "</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1132,39 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1163,39 +1196,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2291,7 +2291,7 @@
   <dimension ref="C3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,12 +2388,12 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -2413,7 +2413,7 @@
       <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="39" t="s">
         <v>64</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -2424,10 +2424,10 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="18" t="s">
         <v>68</v>
       </c>
@@ -2436,8 +2436,8 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="18" t="s">
         <v>69</v>
       </c>
@@ -2446,8 +2446,8 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="52"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="20" t="s">
         <v>81</v>
       </c>
@@ -2456,10 +2456,10 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -2470,8 +2470,8 @@
       </c>
     </row>
     <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="55"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="22" t="s">
         <v>76</v>
       </c>
@@ -2480,10 +2480,10 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="23" t="s">
         <v>78</v>
       </c>
@@ -2492,8 +2492,8 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="23" t="s">
         <v>79</v>
       </c>
@@ -2502,8 +2502,8 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="23" t="s">
         <v>80</v>
       </c>
@@ -2512,8 +2512,8 @@
       </c>
     </row>
     <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="53"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="25" t="s">
         <v>14</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="39" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -2553,7 +2553,7 @@
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="18" t="s">
         <v>80</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="39" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -2576,10 +2576,10 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="18" t="s">
         <v>80</v>
       </c>
@@ -2588,8 +2588,8 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="18" t="s">
         <v>90</v>
       </c>
@@ -2598,8 +2598,8 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="18" t="s">
         <v>91</v>
       </c>
@@ -2608,8 +2608,8 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="52"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
         <v>92</v>
       </c>
@@ -2618,48 +2618,48 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="52"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="52"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="52"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="52"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="18" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="26"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="52"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="18" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="52"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="18" t="s">
         <v>99</v>
       </c>
@@ -2668,16 +2668,16 @@
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="52"/>
-      <c r="D29" s="50"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="18" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="53"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="22" t="s">
         <v>105</v>
       </c>
@@ -2686,12 +2686,12 @@
       </c>
     </row>
     <row r="31" spans="3:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
@@ -2704,29 +2704,23 @@
       </c>
     </row>
     <row r="33" spans="3:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="37" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="48" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="390.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="C33:E34"/>
@@ -2734,6 +2728,12 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D30"/>
     <mergeCell ref="C19:C30"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
